--- a/script/RVSEED_Data_Structure.xlsx
+++ b/script/RVSEED_Data_Structure.xlsx
@@ -8,14 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\设计文档\RVSEED\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2ABF3400-7D85-4563-8C7A-746A762DD637}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97F1A035-EAFD-40B1-92A5-3F1C685602C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7470" yWindow="1583" windowWidth="20625" windowHeight="11872" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7470" yWindow="1583" windowWidth="20625" windowHeight="11872" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="RISCV_INST_R" sheetId="1" r:id="rId1"/>
     <sheet name="RISCV_INST_I" sheetId="4" r:id="rId2"/>
     <sheet name="RISCV_INST_S" sheetId="5" r:id="rId3"/>
+    <sheet name="RISCV_INST_B" sheetId="6" r:id="rId4"/>
+    <sheet name="RISCV_INST_U" sheetId="7" r:id="rId5"/>
+    <sheet name="RISCV_INST_J" sheetId="8" r:id="rId6"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -27,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="10">
   <si>
     <t>opcode</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -50,10 +53,6 @@
   </si>
   <si>
     <t>funct7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>imm</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -425,10 +424,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>9</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.4">
@@ -490,7 +489,7 @@
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -502,10 +501,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>9</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.4">
@@ -558,8 +557,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3DD40218-ED24-454D-936F-EA1B997EAF66}">
   <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -571,10 +570,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>9</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.4">
@@ -587,7 +586,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B3" s="1">
         <v>5</v>
@@ -619,10 +618,193 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="1">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF856BC5-C7D7-49E1-A278-B431849E3057}">
+  <dimension ref="A1:B7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="17" style="1" customWidth="1"/>
+    <col min="2" max="2" width="27.6640625" style="1" customWidth="1"/>
+    <col min="3" max="16384" width="9.06640625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A1" s="2" t="s">
         <v>8</v>
       </c>
+      <c r="B1" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A7" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="B7" s="1">
         <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5619A53-9CEA-48F4-BC94-0338E07150B9}">
+  <dimension ref="A1:B4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F29" sqref="F29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="17" style="1" customWidth="1"/>
+    <col min="2" max="2" width="27.6640625" style="1" customWidth="1"/>
+    <col min="3" max="16384" width="9.06640625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="1">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCE0446F-9552-42B5-8204-3A4DE7E3D57E}">
+  <dimension ref="A1:B4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="17" style="1" customWidth="1"/>
+    <col min="2" max="2" width="27.6640625" style="1" customWidth="1"/>
+    <col min="3" max="16384" width="9.06640625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="1">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
